--- a/documentation/dataset/LIST_ROOMS_TEST.xlsx
+++ b/documentation/dataset/LIST_ROOMS_TEST.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D1DA31-35E1-AB41-8BC4-4E10D869BF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E468D37-F87D-C043-8F07-75993015D0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="30">
   <si>
     <t>Mã phòng</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>LAB</t>
+  </si>
+  <si>
+    <t>Sức chứa</t>
   </si>
 </sst>
 </file>
@@ -507,22 +510,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3500"/>
+  <dimension ref="A1:F3500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="120" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="3" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="50" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,13 +536,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -549,8 +555,11 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -560,8 +569,11 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -571,8 +583,11 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -582,8 +597,11 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -593,8 +611,11 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -604,8 +625,11 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -615,8 +639,11 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -626,8 +653,11 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -637,8 +667,11 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -648,8 +681,11 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -659,8 +695,11 @@
       <c r="C12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -670,8 +709,11 @@
       <c r="C13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -681,8 +723,11 @@
       <c r="C14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -692,8 +737,11 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -703,8 +751,11 @@
       <c r="C16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -714,8 +765,11 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -725,8 +779,11 @@
       <c r="C18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
@@ -736,8 +793,11 @@
       <c r="C19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
@@ -747,8 +807,11 @@
       <c r="C20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -758,8 +821,11 @@
       <c r="C21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -769,8 +835,11 @@
       <c r="C22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -780,8 +849,11 @@
       <c r="C23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -791,8 +863,11 @@
       <c r="C24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -802,8 +877,11 @@
       <c r="C25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -813,8 +891,11 @@
       <c r="C26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -824,8 +905,11 @@
       <c r="C27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -835,8 +919,11 @@
       <c r="C28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -846,8 +933,11 @@
       <c r="C29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -857,8 +947,11 @@
       <c r="C30" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -868,8 +961,11 @@
       <c r="C31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
@@ -879,8 +975,11 @@
       <c r="C32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
@@ -890,8 +989,11 @@
       <c r="C33" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
@@ -901,8 +1003,11 @@
       <c r="C34" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
@@ -912,8 +1017,11 @@
       <c r="C35" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
@@ -923,8 +1031,11 @@
       <c r="C36" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>12</v>
       </c>
@@ -934,8 +1045,11 @@
       <c r="C37" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -945,8 +1059,11 @@
       <c r="C38" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
@@ -956,8 +1073,11 @@
       <c r="C39" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
@@ -967,8 +1087,11 @@
       <c r="C40" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
@@ -978,8 +1101,11 @@
       <c r="C41" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
@@ -989,8 +1115,11 @@
       <c r="C42" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
@@ -1000,8 +1129,11 @@
       <c r="C43" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -1011,8 +1143,11 @@
       <c r="C44" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
@@ -1022,8 +1157,11 @@
       <c r="C45" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>15</v>
       </c>
@@ -1033,8 +1171,11 @@
       <c r="C46" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
@@ -1044,8 +1185,11 @@
       <c r="C47" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
@@ -1055,8 +1199,11 @@
       <c r="C48" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
@@ -1066,8 +1213,11 @@
       <c r="C49" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>12</v>
       </c>
@@ -1077,8 +1227,11 @@
       <c r="C50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>12</v>
       </c>
@@ -1088,8 +1241,11 @@
       <c r="C51" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>12</v>
       </c>
@@ -1099,8 +1255,11 @@
       <c r="C52" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>13</v>
       </c>
@@ -1110,8 +1269,11 @@
       <c r="C53" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>13</v>
       </c>
@@ -1121,8 +1283,11 @@
       <c r="C54" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>13</v>
       </c>
@@ -1132,8 +1297,11 @@
       <c r="C55" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>13</v>
       </c>
@@ -1143,8 +1311,11 @@
       <c r="C56" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>13</v>
       </c>
@@ -1154,8 +1325,11 @@
       <c r="C57" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>14</v>
       </c>
@@ -1165,8 +1339,11 @@
       <c r="C58" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>14</v>
       </c>
@@ -1176,8 +1353,11 @@
       <c r="C59" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>14</v>
       </c>
@@ -1187,8 +1367,11 @@
       <c r="C60" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>14</v>
       </c>
@@ -1198,8 +1381,11 @@
       <c r="C61" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>12</v>
       </c>
@@ -1209,8 +1395,11 @@
       <c r="C62" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>12</v>
       </c>
@@ -1220,8 +1409,11 @@
       <c r="C63" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>12</v>
       </c>
@@ -1231,8 +1423,11 @@
       <c r="C64" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>12</v>
       </c>
@@ -1242,8 +1437,11 @@
       <c r="C65" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>13</v>
       </c>
@@ -1253,8 +1451,11 @@
       <c r="C66" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>13</v>
       </c>
@@ -1264,8 +1465,11 @@
       <c r="C67" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>13</v>
       </c>
@@ -1275,8 +1479,11 @@
       <c r="C68" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>13</v>
       </c>
@@ -1286,8 +1493,11 @@
       <c r="C69" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>14</v>
       </c>
@@ -1297,8 +1507,11 @@
       <c r="C70" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>17</v>
       </c>
@@ -1308,8 +1521,11 @@
       <c r="C71" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>17</v>
       </c>
@@ -1319,8 +1535,11 @@
       <c r="C72" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>18</v>
       </c>
@@ -1330,8 +1549,11 @@
       <c r="C73" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>19</v>
       </c>
@@ -1341,8 +1563,11 @@
       <c r="C74" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>20</v>
       </c>
@@ -1352,8 +1577,11 @@
       <c r="C75" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>20</v>
       </c>
@@ -1363,8 +1591,11 @@
       <c r="C76" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>21</v>
       </c>
@@ -1374,8 +1605,11 @@
       <c r="C77" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>22</v>
       </c>
@@ -1385,8 +1619,11 @@
       <c r="C78" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>23</v>
       </c>
@@ -1396,8 +1633,11 @@
       <c r="C79" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>24</v>
       </c>
@@ -1407,8 +1647,11 @@
       <c r="C80" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>18</v>
       </c>
@@ -1418,8 +1661,11 @@
       <c r="C81" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>25</v>
       </c>
@@ -1429,8 +1675,11 @@
       <c r="C82" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>25</v>
       </c>
@@ -1440,8 +1689,11 @@
       <c r="C83" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>25</v>
       </c>
@@ -1451,8 +1703,11 @@
       <c r="C84" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1717,11 @@
       <c r="C85" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>26</v>
       </c>
@@ -1473,8 +1731,11 @@
       <c r="C86" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>26</v>
       </c>
@@ -1484,8 +1745,11 @@
       <c r="C87" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>27</v>
       </c>
@@ -1495,8 +1759,11 @@
       <c r="C88" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>27</v>
       </c>
@@ -1506,26 +1773,29 @@
       <c r="C89" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
